--- a/Assets/Data/Excel/excel_base_info.xlsx
+++ b/Assets/Data/Excel/excel_base_info.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18060" windowHeight="9870"/>
+    <workbookView windowWidth="18135" windowHeight="10935"/>
   </bookViews>
   <sheets>
     <sheet name="BaseInfo" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -40,25 +40,256 @@
     <t>备注</t>
   </si>
   <si>
-    <t>0,1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>角色创建数据-头发</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10</t>
-  </si>
-  <si>
-    <t>角色创建数据-眼睛</t>
-  </si>
-  <si>
-    <t>角色创建数据-嘴巴</t>
-  </si>
-  <si>
-    <t>0,1200001,1200002</t>
-  </si>
-  <si>
-    <t>角色创建数据-衣服</t>
+    <t>WorkerForLevelUpExp1</t>
+  </si>
+  <si>
+    <t>WorkerForLevelUpExp2</t>
+  </si>
+  <si>
+    <t>WorkerForLevelUpExp3</t>
+  </si>
+  <si>
+    <t>WorkerForLevelUpExp4</t>
+  </si>
+  <si>
+    <t>WorkerForLevelUpExp5</t>
+  </si>
+  <si>
+    <t>WorkerForLevelUpExp6</t>
+  </si>
+  <si>
+    <t>MenuForLevelUpExp1</t>
+  </si>
+  <si>
+    <t>MenuForLevelUpExp2</t>
+  </si>
+  <si>
+    <t>MenuForLevelUpExp3</t>
+  </si>
+  <si>
+    <t>MenuForPriceAddRate1</t>
+  </si>
+  <si>
+    <t>MenuForPriceAddRate2</t>
+  </si>
+  <si>
+    <t>MenuForPriceAddRate3</t>
+  </si>
+  <si>
+    <t>MenuForLevelResearchExp1</t>
+  </si>
+  <si>
+    <t>MenuForLevelResearchExp2</t>
+  </si>
+  <si>
+    <t>MenuForLevelResearchExp3</t>
+  </si>
+  <si>
+    <t>HatForLevel0</t>
+  </si>
+  <si>
+    <t>HatForLevel1</t>
+  </si>
+  <si>
+    <t>HatForLevel2</t>
+  </si>
+  <si>
+    <t>HatForLevel3</t>
+  </si>
+  <si>
+    <t>ClothesForLevel0</t>
+  </si>
+  <si>
+    <t>ClothesForLevel1</t>
+  </si>
+  <si>
+    <t>ClothesForLevel2</t>
+  </si>
+  <si>
+    <t>ClothesForLevel3</t>
+  </si>
+  <si>
+    <t>ShoesForLevel0</t>
+  </si>
+  <si>
+    <t>ShoesForLevel1</t>
+  </si>
+  <si>
+    <t>ShoesForLevel2</t>
+  </si>
+  <si>
+    <t>ShoesForLevel3</t>
+  </si>
+  <si>
+    <t>NpcFavorabilityFor1</t>
+  </si>
+  <si>
+    <t>NpcFavorabilityFor2</t>
+  </si>
+  <si>
+    <t>NpcFavorabilityFor3</t>
+  </si>
+  <si>
+    <t>NpcFavorabilityFor4</t>
+  </si>
+  <si>
+    <t>NpcFavorabilityFor5</t>
+  </si>
+  <si>
+    <t>NpcFavorabilityForMarry</t>
+  </si>
+  <si>
+    <t>BedForLevelUpExp1</t>
+  </si>
+  <si>
+    <t>BedForLevelUpExp2</t>
+  </si>
+  <si>
+    <t>BedForLevelUpExp3</t>
+  </si>
+  <si>
+    <t>BedForLevelResearchExp1</t>
+  </si>
+  <si>
+    <t>BedForLevelResearchExp2</t>
+  </si>
+  <si>
+    <t>BedForLevelResearchExp3</t>
+  </si>
+  <si>
+    <t>BedForPriceAddRate1</t>
+  </si>
+  <si>
+    <t>BedForPriceAddRate2</t>
+  </si>
+  <si>
+    <t>BedForPriceAddRate3</t>
+  </si>
+  <si>
+    <t>0,10,0</t>
+  </si>
+  <si>
+    <t>BedForResearchPrice1</t>
+  </si>
+  <si>
+    <t>10,0,0</t>
+  </si>
+  <si>
+    <t>BedForResearchPrice2</t>
+  </si>
+  <si>
+    <t>100,0,0</t>
+  </si>
+  <si>
+    <t>BedForResearchPrice3</t>
+  </si>
+  <si>
+    <t>7100001|7100002|7100003|7100004|7100011|7100021</t>
+  </si>
+  <si>
+    <t>InfiniteTowersBossForLevel1</t>
+  </si>
+  <si>
+    <t>7200021|7200011|7200001|7200002|7200003|7200004|7200031,7200032,7200033,7200034,7200035,7200036,7200037,7200038,7200039,7200040,7200041,7200042,7200043,7200044,7200045,7200046,7200047,7200048,7200049,7200050,7200051,7200052,7200053,7200054,7200055,7200056,7200057,7200058,7200059,7200060,7200061,7200062,7200063,7200064,7200065</t>
+  </si>
+  <si>
+    <t>InfiniteTowersBossForLevel2</t>
+  </si>
+  <si>
+    <t>7300001|7300011|7300021|7300031|7300041|7300051</t>
+  </si>
+  <si>
+    <t>InfiniteTowersBossForLevel3</t>
+  </si>
+  <si>
+    <t>7400001|7400011|7400021,7400031,7400041,7400051,7400061,7400071,7400081,7400091,7400111,7400121</t>
+  </si>
+  <si>
+    <t>InfiniteTowersBossForLevel4</t>
+  </si>
+  <si>
+    <t>Skills|Skills|Skills|1380101|1380201|130101|130102|130103|130104|130105|230101|230102|230103|230104|230105|330101|330102|330103|330104|330105</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalRewardForLevel1</t>
+  </si>
+  <si>
+    <t>Skills|Skills|Skills|1380102|1380202|130106|130107|130108|130109|130110|230106|230107|230108|230109|230110|330106|330107|330108|330109|330110</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalRewardForLevel2</t>
+  </si>
+  <si>
+    <t>Skills|Skills|Skills|1380103|1380203|130111|130112|130113|130114|130115|230111|230112|230113|230114|230115|330111|330112|330113|330114|330115</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalRewardForLevel3</t>
+  </si>
+  <si>
+    <t>Skills|Skills|Skills|1380104|1380204|130116|130117|130118|130119|130120|230116|230117|230118|230119|230120|330116|330117|330118|330119|330120</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalRewardForLevel4</t>
+  </si>
+  <si>
+    <t>19044|19045|19046|19047|</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalBuildRewardForLevel1</t>
+  </si>
+  <si>
+    <t>19044|19045|19046|19047|60441|60442|60443|60444|60445|60446|60447|61201|61202|61203|61204|</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalBuildRewardForLevel2</t>
+  </si>
+  <si>
+    <t>19044|19045|19046|19047|60441|60442|60443|60444|60445|60446|60447|61301|61302|61303|61304|</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalBuildRewardForLevel3</t>
+  </si>
+  <si>
+    <t>19044|19045|19046|19047|60441|60442|60443|60444|60445|60446|60447|61401|61402|61403|61404|63004|</t>
+  </si>
+  <si>
+    <t>InfiniteTowersNormalBuildRewardForLevel4</t>
+  </si>
+  <si>
+    <t>1180001|1180002|1180003|1201035|810009</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareRewardForLevel1</t>
+  </si>
+  <si>
+    <t>1180004|1180005|1180006|1210025|810011</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareRewardForLevel2</t>
+  </si>
+  <si>
+    <t>1180007|1180008|1180009|1220007|810010</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareRewardForLevel3</t>
+  </si>
+  <si>
+    <t>1180010|1180011|1180012|99900011</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareRewardForLevel4</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareBuildRewardForLevel1</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareBuildRewardForLevel2</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareBuildRewardForLevel3</t>
+  </si>
+  <si>
+    <t>InfiniteTowersRareBuildRewardForLevel4</t>
   </si>
 </sst>
 </file>
@@ -66,10 +297,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -81,14 +312,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -96,21 +319,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,23 +347,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +360,13 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -209,6 +418,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -218,7 +435,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,13 +464,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -251,7 +572,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,157 +644,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -424,17 +655,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -501,15 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -524,6 +735,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -532,10 +763,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,138 +775,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1026,15 +1260,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="70.625" customWidth="1"/>
     <col min="3" max="3" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1075,44 +1309,705 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1000</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
+      <c r="B5">
+        <v>5000</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7">
+        <v>20000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>99999</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1001</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1002</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1003</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1101</v>
+      </c>
+      <c r="B13">
+        <v>1.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1102</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1103</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1201</v>
+      </c>
+      <c r="B16">
+        <v>10000</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1202</v>
+      </c>
+      <c r="B17">
+        <v>100000</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1203</v>
+      </c>
+      <c r="B18">
+        <v>1000000</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.1005611005711e+17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2001</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2002</v>
+      </c>
+      <c r="B21"/>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2003</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.3001113001213e+17</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.1003921004021e+29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2101</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.3000123000223e+23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2102</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2.3000623000723e+29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2103</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.3001123001223e+35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2200</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.1003931004031e+23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2201</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3.3000133000233e+23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2202</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3.3000633000733e+29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2203</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3.3001133001233e+17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>3001</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>3002</v>
+      </c>
+      <c r="B32">
+        <v>100</v>
+      </c>
+      <c r="C32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>3003</v>
+      </c>
+      <c r="B33">
+        <v>250</v>
+      </c>
+      <c r="C33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>3004</v>
+      </c>
+      <c r="B34">
+        <v>500</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>3005</v>
+      </c>
+      <c r="B35">
+        <v>850</v>
+      </c>
+      <c r="C35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>3101</v>
+      </c>
+      <c r="B36">
+        <v>1314</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>4001</v>
+      </c>
+      <c r="B37">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>4002</v>
+      </c>
+      <c r="B38">
+        <v>500</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>4003</v>
+      </c>
+      <c r="B39">
+        <v>2000</v>
+      </c>
+      <c r="C39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>4101</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>4102</v>
+      </c>
+      <c r="B41">
+        <v>100000</v>
+      </c>
+      <c r="C41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>4103</v>
+      </c>
+      <c r="B42">
+        <v>1000000</v>
+      </c>
+      <c r="C42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>4201</v>
+      </c>
+      <c r="B43">
+        <v>1.25</v>
+      </c>
+      <c r="C43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>4202</v>
+      </c>
+      <c r="B44">
+        <v>1.5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>4203</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>4301</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>4302</v>
+      </c>
+      <c r="B47" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>4303</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>5001</v>
+      </c>
+      <c r="B49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>5002</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>5003</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>5004</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>5101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>5102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>5103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>68</v>
+      </c>
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>5104</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>5111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>5112</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>5113</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>5114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>5201</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>5202</v>
+      </c>
+      <c r="B62" t="s">
+        <v>82</v>
+      </c>
+      <c r="C62" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>5203</v>
+      </c>
+      <c r="B63" t="s">
+        <v>84</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>5204</v>
+      </c>
+      <c r="B64" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>5211</v>
+      </c>
+      <c r="B65"/>
+      <c r="C65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>5212</v>
+      </c>
+      <c r="B66"/>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>5213</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>5214</v>
+      </c>
+      <c r="B68" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
